--- a/ProyectoMusica/Documentacion/PrimerDocumentoBocetoBase.xlsx
+++ b/ProyectoMusica/Documentacion/PrimerDocumentoBocetoBase.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\USB Antonio\Noveno Cuatrimestre\Programacion\ProyectoMusica\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB Antonio\Noveno Cuatrimestre\Programacion\ProyectoMusica\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +53,6 @@
     <t>tabla.artista</t>
   </si>
   <si>
-    <t>id_artista</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>tabla.disquera</t>
   </si>
   <si>
-    <t>id_disquera</t>
-  </si>
-  <si>
     <t>nombre_artistico</t>
   </si>
   <si>
@@ -89,12 +83,6 @@
     <t>correo</t>
   </si>
   <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>id_album</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -117,12 +105,24 @@
   </si>
   <si>
     <t>fecha_creacion</t>
+  </si>
+  <si>
+    <t>tabla.album</t>
+  </si>
+  <si>
+    <t>id_artista *</t>
+  </si>
+  <si>
+    <t>id_disquera *</t>
+  </si>
+  <si>
+    <t>id_album *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,12 +132,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,9 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,28 +491,28 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -499,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,24 +534,24 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,45 +559,46 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProyectoMusica/Documentacion/PrimerDocumentoBocetoBase.xlsx
+++ b/ProyectoMusica/Documentacion/PrimerDocumentoBocetoBase.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB Antonio\Noveno Cuatrimestre\Programacion\ProyectoMusica\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de programa\Github\ProyectoPPA\ProyectoMusica\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pendientes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Proyecto A</t>
   </si>
@@ -117,12 +118,21 @@
   </si>
   <si>
     <t>id_album *</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Mostrar fecha artista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -601,4 +611,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>